--- a/docs/source/recursos/conflictos/matrices/agricultura_equidistante_vs_conservacion_equidistante.xlsx
+++ b/docs/source/recursos/conflictos/matrices/agricultura_equidistante_vs_conservacion_equidistante.xlsx
@@ -478,17 +478,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>59.3</v>
+        <v>60.6</v>
       </c>
       <c r="E2" t="n">
-        <v>79.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="F2" t="n">
-        <v>1836.2</v>
+        <v>1870.3</v>
       </c>
     </row>
     <row r="3">
@@ -499,22 +499,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>117.3</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>26.4</v>
+        <v>184.4</v>
       </c>
       <c r="E3" t="n">
-        <v>182.4</v>
+        <v>613.2</v>
       </c>
       <c r="F3" t="n">
-        <v>216.3</v>
+        <v>396.6</v>
       </c>
     </row>
     <row r="4">
@@ -525,22 +525,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>364.9</t>
+          <t>465.1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1603.6</t>
+          <t>2648.3</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2824.9</v>
+        <v>4108.6</v>
       </c>
       <c r="E4" t="n">
-        <v>4069.1</v>
+        <v>6717.1</v>
       </c>
       <c r="F4" t="n">
-        <v>2433.1</v>
+        <v>4215.4</v>
       </c>
     </row>
     <row r="5">
@@ -551,22 +551,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>225.6</t>
+          <t>122.2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5243.3</t>
+          <t>4516.7</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4854.1</v>
+        <v>3651.6</v>
       </c>
       <c r="E5" t="n">
-        <v>9079.4</v>
+        <v>6282.2</v>
       </c>
       <c r="F5" t="n">
-        <v>4067.7</v>
+        <v>2165.1</v>
       </c>
     </row>
     <row r="6">
@@ -577,22 +577,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>646.1</t>
+          <t>216.7</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>313.6</v>
+        <v>73.2</v>
       </c>
       <c r="E6" t="n">
-        <v>365.8</v>
+        <v>70</v>
       </c>
       <c r="F6" t="n">
-        <v>122.1</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="7">
@@ -623,12 +623,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Alta</t>
+          <t>Moderada</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -643,7 +643,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -663,12 +663,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Muy alta</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -683,7 +683,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
